--- a/series_02/mpi_100/qsmf_output.xlsx
+++ b/series_02/mpi_100/qsmf_output.xlsx
@@ -441,10 +441,10 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.7557</v>
+        <v>4.7771</v>
       </c>
       <c r="D2">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2">
         <v>100</v>
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.7771</v>
+        <v>5.7557</v>
       </c>
       <c r="D3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>100</v>
@@ -528,10 +528,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.4805</v>
+        <v>5.5073</v>
       </c>
       <c r="D5">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E5">
         <v>100</v>
@@ -557,10 +557,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.6219</v>
+        <v>6.4805</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>100</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.5073</v>
+        <v>6.6219</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>100</v>
@@ -644,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>7.113</v>
+        <v>6.0864</v>
       </c>
       <c r="D9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E9">
         <v>100</v>
@@ -673,10 +673,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>7.1834</v>
+        <v>7.113</v>
       </c>
       <c r="D10">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>100</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>7.1763</v>
+        <v>7.1834</v>
       </c>
       <c r="D11">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>100</v>
@@ -731,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>6.0864</v>
+        <v>7.1763</v>
       </c>
       <c r="D12">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E12">
         <v>100</v>
@@ -789,10 +789,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>7.4703</v>
+        <v>6.438</v>
       </c>
       <c r="D14">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E14">
         <v>100</v>
@@ -818,10 +818,10 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>7.6092</v>
+        <v>7.4703</v>
       </c>
       <c r="D15">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E15">
         <v>100</v>
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>7.6105</v>
+        <v>7.6092</v>
       </c>
       <c r="D16">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>100</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.438</v>
+        <v>7.6105</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E17">
         <v>100</v>
@@ -992,10 +992,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>7.2972</v>
+        <v>6.3587</v>
       </c>
       <c r="D21">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E21">
         <v>100</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.5366</v>
+        <v>7.2972</v>
       </c>
       <c r="D22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>100</v>
@@ -1050,10 +1050,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.7021</v>
+        <v>7.5366</v>
       </c>
       <c r="D23">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E23">
         <v>100</v>
@@ -1079,10 +1079,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>7.7197</v>
+        <v>7.7021</v>
       </c>
       <c r="D24">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="E24">
         <v>100</v>
@@ -1108,10 +1108,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.3587</v>
+        <v>7.7197</v>
       </c>
       <c r="D25">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E25">
         <v>100</v>
@@ -1195,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>6.7857</v>
+        <v>6.1787</v>
       </c>
       <c r="D28">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E28">
         <v>100</v>
@@ -1224,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>7.3233</v>
+        <v>6.7857</v>
       </c>
       <c r="D29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E29">
         <v>100</v>
@@ -1253,10 +1253,10 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>7.4178</v>
+        <v>7.3233</v>
       </c>
       <c r="D30">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E30">
         <v>100</v>
@@ -1282,10 +1282,10 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>6.1787</v>
+        <v>7.4178</v>
       </c>
       <c r="D31">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E31">
         <v>100</v>
@@ -1369,10 +1369,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>6.0748</v>
+        <v>4.5756</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E34">
         <v>100</v>
@@ -1398,10 +1398,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>5.9671</v>
+        <v>6.0748</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E35">
         <v>100</v>
@@ -1427,10 +1427,10 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>5.7234</v>
+        <v>5.9671</v>
       </c>
       <c r="D36">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E36">
         <v>100</v>
@@ -1456,10 +1456,10 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>7.4834</v>
+        <v>5.7234</v>
       </c>
       <c r="D37">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E37">
         <v>100</v>
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>4.5756</v>
+        <v>7.4834</v>
       </c>
       <c r="D38">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E38">
         <v>100</v>
@@ -1514,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="C39">
-        <v>4.5553</v>
+        <v>3.9443</v>
       </c>
       <c r="D39">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E39">
         <v>100</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="C40">
-        <v>5.2169</v>
+        <v>4.5553</v>
       </c>
       <c r="D40">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E40">
         <v>100</v>
@@ -1572,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="C41">
-        <v>5.9802</v>
+        <v>5.2169</v>
       </c>
       <c r="D41">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E41">
         <v>100</v>
@@ -1601,10 +1601,10 @@
         <v>0</v>
       </c>
       <c r="C42">
-        <v>6.7883</v>
+        <v>5.9802</v>
       </c>
       <c r="D42">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="E42">
         <v>100</v>
@@ -1630,10 +1630,10 @@
         <v>0</v>
       </c>
       <c r="C43">
-        <v>7.1814</v>
+        <v>6.7883</v>
       </c>
       <c r="D43">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E43">
         <v>100</v>
@@ -1659,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="C44">
-        <v>3.9443</v>
+        <v>7.1814</v>
       </c>
       <c r="D44">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E44">
         <v>100</v>
@@ -1717,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="C46">
-        <v>2.2691</v>
+        <v>1.53</v>
       </c>
       <c r="D46">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E46">
         <v>100</v>
@@ -1746,10 +1746,10 @@
         <v>0</v>
       </c>
       <c r="C47">
-        <v>3.9589</v>
+        <v>2.2691</v>
       </c>
       <c r="D47">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E47">
         <v>100</v>
@@ -1775,10 +1775,10 @@
         <v>0</v>
       </c>
       <c r="C48">
-        <v>4.4412</v>
+        <v>3.9589</v>
       </c>
       <c r="D48">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E48">
         <v>100</v>
@@ -1804,10 +1804,10 @@
         <v>0</v>
       </c>
       <c r="C49">
-        <v>1.53</v>
+        <v>4.4412</v>
       </c>
       <c r="D49">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E49">
         <v>100</v>
@@ -2848,10 +2848,10 @@
         <v>2</v>
       </c>
       <c r="C85">
-        <v>5.8668</v>
+        <v>4.9043</v>
       </c>
       <c r="D85">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E85">
         <v>100</v>
@@ -2877,10 +2877,10 @@
         <v>2</v>
       </c>
       <c r="C86">
-        <v>4.9043</v>
+        <v>5.8668</v>
       </c>
       <c r="D86">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E86">
         <v>100</v>
@@ -2906,10 +2906,10 @@
         <v>2</v>
       </c>
       <c r="C87">
-        <v>6.5206</v>
+        <v>5.5884</v>
       </c>
       <c r="D87">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E87">
         <v>100</v>
@@ -2935,10 +2935,10 @@
         <v>2</v>
       </c>
       <c r="C88">
-        <v>5.5884</v>
+        <v>6.5206</v>
       </c>
       <c r="D88">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E88">
         <v>100</v>
@@ -2964,10 +2964,10 @@
         <v>2</v>
       </c>
       <c r="C89">
-        <v>7.204</v>
+        <v>6.1934</v>
       </c>
       <c r="D89">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E89">
         <v>100</v>
@@ -2993,10 +2993,10 @@
         <v>2</v>
       </c>
       <c r="C90">
-        <v>6.1934</v>
+        <v>7.204</v>
       </c>
       <c r="D90">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E90">
         <v>100</v>
@@ -3022,10 +3022,10 @@
         <v>2</v>
       </c>
       <c r="C91">
-        <v>7.5564</v>
+        <v>6.4985</v>
       </c>
       <c r="D91">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E91">
         <v>100</v>
@@ -3051,10 +3051,10 @@
         <v>2</v>
       </c>
       <c r="C92">
-        <v>6.4985</v>
+        <v>7.5564</v>
       </c>
       <c r="D92">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E92">
         <v>100</v>
@@ -3080,10 +3080,10 @@
         <v>2</v>
       </c>
       <c r="C93">
-        <v>7.544</v>
+        <v>6.7917</v>
       </c>
       <c r="D93">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E93">
         <v>100</v>
@@ -3109,10 +3109,10 @@
         <v>2</v>
       </c>
       <c r="C94">
-        <v>6.7917</v>
+        <v>7.544</v>
       </c>
       <c r="D94">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E94">
         <v>100</v>
@@ -3138,10 +3138,10 @@
         <v>2</v>
       </c>
       <c r="C95">
-        <v>7.1399</v>
+        <v>6.4306</v>
       </c>
       <c r="D95">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E95">
         <v>100</v>
@@ -3167,10 +3167,10 @@
         <v>2</v>
       </c>
       <c r="C96">
-        <v>6.4306</v>
+        <v>7.1399</v>
       </c>
       <c r="D96">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E96">
         <v>100</v>
@@ -3196,10 +3196,10 @@
         <v>2</v>
       </c>
       <c r="C97">
-        <v>6.4752</v>
+        <v>5.084</v>
       </c>
       <c r="D97">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E97">
         <v>100</v>
@@ -3225,10 +3225,10 @@
         <v>2</v>
       </c>
       <c r="C98">
-        <v>5.084</v>
+        <v>6.4752</v>
       </c>
       <c r="D98">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E98">
         <v>100</v>
@@ -3254,10 +3254,10 @@
         <v>2</v>
       </c>
       <c r="C99">
-        <v>5.5626</v>
+        <v>4.6744</v>
       </c>
       <c r="D99">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E99">
         <v>100</v>
@@ -3283,10 +3283,10 @@
         <v>2</v>
       </c>
       <c r="C100">
-        <v>4.6744</v>
+        <v>5.5626</v>
       </c>
       <c r="D100">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E100">
         <v>100</v>
@@ -3312,10 +3312,10 @@
         <v>2</v>
       </c>
       <c r="C101">
-        <v>2.9996</v>
+        <v>2.4918</v>
       </c>
       <c r="D101">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E101">
         <v>100</v>
@@ -3341,10 +3341,10 @@
         <v>2</v>
       </c>
       <c r="C102">
-        <v>2.4918</v>
+        <v>2.9996</v>
       </c>
       <c r="D102">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E102">
         <v>100</v>
@@ -3370,10 +3370,10 @@
         <v>2</v>
       </c>
       <c r="C103">
-        <v>1.9946</v>
+        <v>0.98269</v>
       </c>
       <c r="D103">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E103">
         <v>100</v>
@@ -3399,10 +3399,10 @@
         <v>2</v>
       </c>
       <c r="C104">
-        <v>0.98269</v>
+        <v>1.9946</v>
       </c>
       <c r="D104">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E104">
         <v>100</v>
@@ -3428,10 +3428,10 @@
         <v>2</v>
       </c>
       <c r="C105">
-        <v>-1.5392</v>
+        <v>-1.7803</v>
       </c>
       <c r="D105">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E105">
         <v>100</v>
@@ -3457,10 +3457,10 @@
         <v>2</v>
       </c>
       <c r="C106">
-        <v>-1.7803</v>
+        <v>-1.5392</v>
       </c>
       <c r="D106">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E106">
         <v>100</v>
@@ -3486,10 +3486,10 @@
         <v>2</v>
       </c>
       <c r="C107">
-        <v>-2.2028</v>
+        <v>-3.9101</v>
       </c>
       <c r="D107">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E107">
         <v>100</v>
@@ -3515,10 +3515,10 @@
         <v>2</v>
       </c>
       <c r="C108">
-        <v>-3.9101</v>
+        <v>-2.2028</v>
       </c>
       <c r="D108">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E108">
         <v>100</v>
@@ -3921,10 +3921,10 @@
         <v>3</v>
       </c>
       <c r="C122">
-        <v>7.7471</v>
+        <v>6.7476</v>
       </c>
       <c r="D122">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E122">
         <v>100</v>
@@ -3950,10 +3950,10 @@
         <v>3</v>
       </c>
       <c r="C123">
-        <v>6.7476</v>
+        <v>7.7471</v>
       </c>
       <c r="D123">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E123">
         <v>100</v>
@@ -4037,10 +4037,10 @@
         <v>3</v>
       </c>
       <c r="C126">
-        <v>4.5914</v>
+        <v>3.183</v>
       </c>
       <c r="D126">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E126">
         <v>100</v>
@@ -4066,10 +4066,10 @@
         <v>3</v>
       </c>
       <c r="C127">
-        <v>3.183</v>
+        <v>4.5914</v>
       </c>
       <c r="D127">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E127">
         <v>100</v>
@@ -4124,10 +4124,10 @@
         <v>3</v>
       </c>
       <c r="C129">
-        <v>0.9354299999999999</v>
+        <v>-0.49457</v>
       </c>
       <c r="D129">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E129">
         <v>100</v>
@@ -4153,10 +4153,10 @@
         <v>3</v>
       </c>
       <c r="C130">
-        <v>-0.49457</v>
+        <v>0.9354299999999999</v>
       </c>
       <c r="D130">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E130">
         <v>100</v>
@@ -4182,10 +4182,10 @@
         <v>3</v>
       </c>
       <c r="C131">
-        <v>-1.1436</v>
+        <v>-3.6106</v>
       </c>
       <c r="D131">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E131">
         <v>100</v>
@@ -4211,10 +4211,10 @@
         <v>3</v>
       </c>
       <c r="C132">
-        <v>-3.6106</v>
+        <v>-1.1436</v>
       </c>
       <c r="D132">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E132">
         <v>100</v>
@@ -4269,10 +4269,10 @@
         <v>4</v>
       </c>
       <c r="C134">
-        <v>5.8345</v>
+        <v>4.8828</v>
       </c>
       <c r="D134">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E134">
         <v>100</v>
@@ -4298,10 +4298,10 @@
         <v>4</v>
       </c>
       <c r="C135">
-        <v>4.8828</v>
+        <v>5.8345</v>
       </c>
       <c r="D135">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E135">
         <v>100</v>
@@ -4327,10 +4327,10 @@
         <v>4</v>
       </c>
       <c r="C136">
-        <v>6.666</v>
+        <v>5.6818</v>
       </c>
       <c r="D136">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E136">
         <v>100</v>
@@ -4356,10 +4356,10 @@
         <v>4</v>
       </c>
       <c r="C137">
-        <v>5.6818</v>
+        <v>6.666</v>
       </c>
       <c r="D137">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E137">
         <v>100</v>
@@ -4414,10 +4414,10 @@
         <v>4</v>
       </c>
       <c r="C139">
-        <v>7.2374</v>
+        <v>6.412999999999999</v>
       </c>
       <c r="D139">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E139">
         <v>100</v>
@@ -4443,10 +4443,10 @@
         <v>4</v>
       </c>
       <c r="C140">
-        <v>6.412999999999999</v>
+        <v>7.2374</v>
       </c>
       <c r="D140">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E140">
         <v>100</v>
@@ -4501,10 +4501,10 @@
         <v>4</v>
       </c>
       <c r="C142">
-        <v>7.6427</v>
+        <v>6.9264</v>
       </c>
       <c r="D142">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E142">
         <v>100</v>
@@ -4530,10 +4530,10 @@
         <v>4</v>
       </c>
       <c r="C143">
-        <v>6.9264</v>
+        <v>7.6427</v>
       </c>
       <c r="D143">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E143">
         <v>100</v>
@@ -4588,10 +4588,10 @@
         <v>4</v>
       </c>
       <c r="C145">
-        <v>7.6427</v>
+        <v>7.0467</v>
       </c>
       <c r="D145">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E145">
         <v>100</v>
@@ -4617,10 +4617,10 @@
         <v>4</v>
       </c>
       <c r="C146">
-        <v>7.0467</v>
+        <v>7.6427</v>
       </c>
       <c r="D146">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E146">
         <v>100</v>
@@ -4646,10 +4646,10 @@
         <v>4</v>
       </c>
       <c r="C147">
-        <v>6.2589</v>
+        <v>5.8716</v>
       </c>
       <c r="D147">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E147">
         <v>100</v>
@@ -4675,10 +4675,10 @@
         <v>4</v>
       </c>
       <c r="C148">
-        <v>7.6169</v>
+        <v>6.2589</v>
       </c>
       <c r="D148">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E148">
         <v>100</v>
@@ -4704,10 +4704,10 @@
         <v>4</v>
       </c>
       <c r="C149">
-        <v>5.8716</v>
+        <v>7.6169</v>
       </c>
       <c r="D149">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E149">
         <v>100</v>
@@ -4733,10 +4733,10 @@
         <v>4</v>
       </c>
       <c r="C150">
-        <v>5.2915</v>
+        <v>5.3921</v>
       </c>
       <c r="D150">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E150">
         <v>100</v>
@@ -4762,10 +4762,10 @@
         <v>4</v>
       </c>
       <c r="C151">
-        <v>6.911</v>
+        <v>5.2915</v>
       </c>
       <c r="D151">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E151">
         <v>100</v>
@@ -4791,10 +4791,10 @@
         <v>4</v>
       </c>
       <c r="C152">
-        <v>5.3921</v>
+        <v>6.911</v>
       </c>
       <c r="D152">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E152">
         <v>100</v>
@@ -4820,10 +4820,10 @@
         <v>4</v>
       </c>
       <c r="C153">
-        <v>4.0326</v>
+        <v>3.8985</v>
       </c>
       <c r="D153">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E153">
         <v>100</v>
@@ -4849,10 +4849,10 @@
         <v>4</v>
       </c>
       <c r="C154">
-        <v>3.8985</v>
+        <v>4.0326</v>
       </c>
       <c r="D154">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E154">
         <v>100</v>
@@ -4878,10 +4878,10 @@
         <v>4</v>
       </c>
       <c r="C155">
-        <v>2.3082</v>
+        <v>1.8286</v>
       </c>
       <c r="D155">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E155">
         <v>100</v>
@@ -4907,10 +4907,10 @@
         <v>4</v>
       </c>
       <c r="C156">
-        <v>1.8286</v>
+        <v>2.3082</v>
       </c>
       <c r="D156">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E156">
         <v>100</v>
@@ -5168,10 +5168,10 @@
         <v>5</v>
       </c>
       <c r="C165">
-        <v>7.9164</v>
+        <v>7.1379</v>
       </c>
       <c r="D165">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E165">
         <v>100</v>
@@ -5197,10 +5197,10 @@
         <v>5</v>
       </c>
       <c r="C166">
-        <v>7.1379</v>
+        <v>7.9164</v>
       </c>
       <c r="D166">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E166">
         <v>100</v>
@@ -5255,10 +5255,10 @@
         <v>5</v>
       </c>
       <c r="C168">
-        <v>7.8669</v>
+        <v>7.3644</v>
       </c>
       <c r="D168">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E168">
         <v>100</v>
@@ -5284,10 +5284,10 @@
         <v>5</v>
       </c>
       <c r="C169">
-        <v>7.3644</v>
+        <v>7.8669</v>
       </c>
       <c r="D169">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E169">
         <v>100</v>
@@ -5342,10 +5342,10 @@
         <v>5</v>
       </c>
       <c r="C171">
-        <v>7.2864</v>
+        <v>6.6668</v>
       </c>
       <c r="D171">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E171">
         <v>100</v>
@@ -5371,10 +5371,10 @@
         <v>5</v>
       </c>
       <c r="C172">
-        <v>7.8699</v>
+        <v>7.2864</v>
       </c>
       <c r="D172">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E172">
         <v>100</v>
@@ -5400,10 +5400,10 @@
         <v>5</v>
       </c>
       <c r="C173">
-        <v>6.6668</v>
+        <v>7.8699</v>
       </c>
       <c r="D173">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E173">
         <v>100</v>
@@ -5429,10 +5429,10 @@
         <v>5</v>
       </c>
       <c r="C174">
-        <v>6.5236</v>
+        <v>6.0606</v>
       </c>
       <c r="D174">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E174">
         <v>100</v>
@@ -5458,10 +5458,10 @@
         <v>5</v>
       </c>
       <c r="C175">
-        <v>7.295</v>
+        <v>6.5236</v>
       </c>
       <c r="D175">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E175">
         <v>100</v>
@@ -5487,10 +5487,10 @@
         <v>5</v>
       </c>
       <c r="C176">
-        <v>6.0606</v>
+        <v>7.295</v>
       </c>
       <c r="D176">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E176">
         <v>100</v>
@@ -5516,10 +5516,10 @@
         <v>5</v>
       </c>
       <c r="C177">
-        <v>4.1363</v>
+        <v>4.3841</v>
       </c>
       <c r="D177">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E177">
         <v>100</v>
@@ -5545,10 +5545,10 @@
         <v>5</v>
       </c>
       <c r="C178">
-        <v>6.5903</v>
+        <v>4.1363</v>
       </c>
       <c r="D178">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E178">
         <v>100</v>
@@ -5574,10 +5574,10 @@
         <v>5</v>
       </c>
       <c r="C179">
-        <v>4.3841</v>
+        <v>6.5903</v>
       </c>
       <c r="D179">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="E179">
         <v>100</v>
@@ -5603,10 +5603,10 @@
         <v>5</v>
       </c>
       <c r="C180">
-        <v>3.451</v>
+        <v>2.2793</v>
       </c>
       <c r="D180">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E180">
         <v>100</v>
@@ -5632,10 +5632,10 @@
         <v>5</v>
       </c>
       <c r="C181">
-        <v>2.2793</v>
+        <v>3.451</v>
       </c>
       <c r="D181">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E181">
         <v>100</v>
@@ -5661,10 +5661,10 @@
         <v>5</v>
       </c>
       <c r="C182">
-        <v>1.0714</v>
+        <v>0.7378399999999999</v>
       </c>
       <c r="D182">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E182">
         <v>100</v>
@@ -5690,10 +5690,10 @@
         <v>5</v>
       </c>
       <c r="C183">
-        <v>0.7378399999999999</v>
+        <v>1.0714</v>
       </c>
       <c r="D183">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E183">
         <v>100</v>
@@ -5719,10 +5719,10 @@
         <v>5</v>
       </c>
       <c r="C184">
-        <v>-1.4735</v>
+        <v>-0.81892</v>
       </c>
       <c r="D184">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E184">
         <v>100</v>
@@ -5748,10 +5748,10 @@
         <v>5</v>
       </c>
       <c r="C185">
-        <v>-0.81892</v>
+        <v>-1.4735</v>
       </c>
       <c r="D185">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E185">
         <v>100</v>
@@ -5835,10 +5835,10 @@
         <v>6</v>
       </c>
       <c r="C188">
-        <v>6.6929</v>
+        <v>5.7292</v>
       </c>
       <c r="D188">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E188">
         <v>100</v>
@@ -5864,10 +5864,10 @@
         <v>6</v>
       </c>
       <c r="C189">
-        <v>6.5614</v>
+        <v>6.6929</v>
       </c>
       <c r="D189">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E189">
         <v>100</v>
@@ -5893,10 +5893,10 @@
         <v>6</v>
       </c>
       <c r="C190">
-        <v>5.7292</v>
+        <v>6.5614</v>
       </c>
       <c r="D190">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E190">
         <v>100</v>
@@ -5922,10 +5922,10 @@
         <v>6</v>
       </c>
       <c r="C191">
-        <v>7.2864</v>
+        <v>6.4588</v>
       </c>
       <c r="D191">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E191">
         <v>100</v>
@@ -5951,10 +5951,10 @@
         <v>6</v>
       </c>
       <c r="C192">
-        <v>7.2896</v>
+        <v>7.2864</v>
       </c>
       <c r="D192">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E192">
         <v>100</v>
@@ -5980,10 +5980,10 @@
         <v>6</v>
       </c>
       <c r="C193">
-        <v>6.4588</v>
+        <v>7.2896</v>
       </c>
       <c r="D193">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E193">
         <v>100</v>
@@ -6067,10 +6067,10 @@
         <v>6</v>
       </c>
       <c r="C196">
-        <v>7.8982</v>
+        <v>7.4074</v>
       </c>
       <c r="D196">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E196">
         <v>100</v>
@@ -6096,10 +6096,10 @@
         <v>6</v>
       </c>
       <c r="C197">
-        <v>8.144600000000001</v>
+        <v>7.8982</v>
       </c>
       <c r="D197">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E197">
         <v>100</v>
@@ -6125,10 +6125,10 @@
         <v>6</v>
       </c>
       <c r="C198">
-        <v>7.4074</v>
+        <v>8.144600000000001</v>
       </c>
       <c r="D198">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E198">
         <v>100</v>
@@ -6183,10 +6183,10 @@
         <v>6</v>
       </c>
       <c r="C200">
-        <v>7.8551</v>
+        <v>7.4456</v>
       </c>
       <c r="D200">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E200">
         <v>100</v>
@@ -6212,10 +6212,10 @@
         <v>6</v>
       </c>
       <c r="C201">
-        <v>8.109999999999999</v>
+        <v>7.8551</v>
       </c>
       <c r="D201">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E201">
         <v>100</v>
@@ -6241,10 +6241,10 @@
         <v>6</v>
       </c>
       <c r="C202">
-        <v>7.4456</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="D202">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E202">
         <v>100</v>
@@ -6299,10 +6299,10 @@
         <v>6</v>
       </c>
       <c r="C204">
-        <v>7.4834</v>
+        <v>7.0621</v>
       </c>
       <c r="D204">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E204">
         <v>100</v>
@@ -6328,10 +6328,10 @@
         <v>6</v>
       </c>
       <c r="C205">
-        <v>7.0621</v>
+        <v>7.4834</v>
       </c>
       <c r="D205">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E205">
         <v>100</v>
@@ -6386,10 +6386,10 @@
         <v>6</v>
       </c>
       <c r="C207">
-        <v>6.4602</v>
+        <v>5.0359</v>
       </c>
       <c r="D207">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E207">
         <v>100</v>
@@ -6415,10 +6415,10 @@
         <v>6</v>
       </c>
       <c r="C208">
-        <v>6.2239</v>
+        <v>6.4602</v>
       </c>
       <c r="D208">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E208">
         <v>100</v>
@@ -6444,10 +6444,10 @@
         <v>6</v>
       </c>
       <c r="C209">
-        <v>5.0359</v>
+        <v>6.2239</v>
       </c>
       <c r="D209">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E209">
         <v>100</v>
@@ -6473,10 +6473,10 @@
         <v>6</v>
       </c>
       <c r="C210">
-        <v>5.2031</v>
+        <v>4.9568</v>
       </c>
       <c r="D210">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E210">
         <v>100</v>
@@ -6502,10 +6502,10 @@
         <v>6</v>
       </c>
       <c r="C211">
-        <v>6.8541</v>
+        <v>5.2031</v>
       </c>
       <c r="D211">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E211">
         <v>100</v>
@@ -6531,10 +6531,10 @@
         <v>6</v>
       </c>
       <c r="C212">
-        <v>4.9568</v>
+        <v>6.8541</v>
       </c>
       <c r="D212">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E212">
         <v>100</v>
@@ -6560,10 +6560,10 @@
         <v>6</v>
       </c>
       <c r="C213">
-        <v>2.8657</v>
+        <v>3.0817</v>
       </c>
       <c r="D213">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E213">
         <v>100</v>
@@ -6589,10 +6589,10 @@
         <v>6</v>
       </c>
       <c r="C214">
-        <v>3.6429</v>
+        <v>2.8657</v>
       </c>
       <c r="D214">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E214">
         <v>100</v>
@@ -6618,10 +6618,10 @@
         <v>6</v>
       </c>
       <c r="C215">
-        <v>5.4408</v>
+        <v>3.6429</v>
       </c>
       <c r="D215">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E215">
         <v>100</v>
@@ -6647,10 +6647,10 @@
         <v>6</v>
       </c>
       <c r="C216">
-        <v>3.0817</v>
+        <v>5.4408</v>
       </c>
       <c r="D216">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E216">
         <v>100</v>
@@ -6676,10 +6676,10 @@
         <v>6</v>
       </c>
       <c r="C217">
-        <v>1.4534</v>
+        <v>1.3118</v>
       </c>
       <c r="D217">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E217">
         <v>100</v>
@@ -6705,10 +6705,10 @@
         <v>6</v>
       </c>
       <c r="C218">
-        <v>1.4354</v>
+        <v>1.4534</v>
       </c>
       <c r="D218">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E218">
         <v>100</v>
@@ -6734,10 +6734,10 @@
         <v>6</v>
       </c>
       <c r="C219">
-        <v>4.4914</v>
+        <v>1.4354</v>
       </c>
       <c r="D219">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="E219">
         <v>100</v>
@@ -6763,10 +6763,10 @@
         <v>6</v>
       </c>
       <c r="C220">
-        <v>1.3118</v>
+        <v>4.4914</v>
       </c>
       <c r="D220">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="E220">
         <v>100</v>
@@ -6792,10 +6792,10 @@
         <v>6</v>
       </c>
       <c r="C221">
-        <v>-0.7593800000000001</v>
+        <v>-1.0676</v>
       </c>
       <c r="D221">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E221">
         <v>100</v>
@@ -6821,10 +6821,10 @@
         <v>6</v>
       </c>
       <c r="C222">
-        <v>-1.2003</v>
+        <v>-0.7593800000000001</v>
       </c>
       <c r="D222">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E222">
         <v>100</v>
@@ -6850,10 +6850,10 @@
         <v>6</v>
       </c>
       <c r="C223">
-        <v>-1.0676</v>
+        <v>-1.2003</v>
       </c>
       <c r="D223">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="E223">
         <v>100</v>
@@ -7749,10 +7749,10 @@
         <v>8</v>
       </c>
       <c r="C254">
-        <v>5.8398</v>
+        <v>4.9917</v>
       </c>
       <c r="D254">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E254">
         <v>100</v>
@@ -7778,10 +7778,10 @@
         <v>8</v>
       </c>
       <c r="C255">
-        <v>4.9917</v>
+        <v>5.8398</v>
       </c>
       <c r="D255">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E255">
         <v>100</v>
@@ -7807,10 +7807,10 @@
         <v>8</v>
       </c>
       <c r="C256">
-        <v>6.5793</v>
+        <v>5.7978</v>
       </c>
       <c r="D256">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E256">
         <v>100</v>
@@ -7836,10 +7836,10 @@
         <v>8</v>
       </c>
       <c r="C257">
-        <v>5.7978</v>
+        <v>6.5793</v>
       </c>
       <c r="D257">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E257">
         <v>100</v>
@@ -7865,10 +7865,10 @@
         <v>8</v>
       </c>
       <c r="C258">
-        <v>7.3157</v>
+        <v>6.4064</v>
       </c>
       <c r="D258">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E258">
         <v>100</v>
@@ -7894,10 +7894,10 @@
         <v>8</v>
       </c>
       <c r="C259">
-        <v>6.951000000000001</v>
+        <v>7.3157</v>
       </c>
       <c r="D259">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E259">
         <v>100</v>
@@ -7923,10 +7923,10 @@
         <v>8</v>
       </c>
       <c r="C260">
-        <v>6.4064</v>
+        <v>6.951000000000001</v>
       </c>
       <c r="D260">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="E260">
         <v>100</v>
@@ -20074,10 +20074,10 @@
         <v>45</v>
       </c>
       <c r="C679">
-        <v>7.7429</v>
+        <v>9.2319</v>
       </c>
       <c r="D679">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="E679">
         <v>100</v>
@@ -20103,10 +20103,10 @@
         <v>45</v>
       </c>
       <c r="C680">
-        <v>9.2319</v>
+        <v>7.7429</v>
       </c>
       <c r="D680">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="E680">
         <v>100</v>
